--- a/biology/Botanique/A.E.Ortmann/A.E.Ortmann.xlsx
+++ b/biology/Botanique/A.E.Ortmann/A.E.Ortmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnold Edward Ortmann est un naturaliste américain d’origine allemande, né le 8 avril 1863 à Magdebourg et mort le 3 janvier 1927.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Edward Fran Ortmann et de Bertha née Lorenz. Il fait ses études dans les universités d’Iéna, de Kiel et de Strasbourg. Il sert dans l’armée de 1882 à 1883. Il obtient son doctorat à Iéna en 1885. Il voyage à Zanzibar en 1890-1891.
 Il se marie avec Anna Zaiss le 5 décembre 1894 et vient la même année aux États-Unis. De 1894 à 1903, il est conservateur de la paléontologie des invertébrés à l’université de Princeton, puis de 1903 à 1909, il a la même fonction au Muséum Carnegie de Pittsburgh. En 1909-1910, il est instructeur de géologie à l’université de géographie à l’université de Pittsburgh, de 1910 à 1925 professeur de géologie, à partir de 1925 professeur de zoologie. Il obtient un Doctorat of Sciences à l’université de Pittsburg en 1911
